--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2246.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2246.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.236540636515236</v>
+        <v>1.132280349731445</v>
       </c>
       <c r="B1">
-        <v>2.443677279720258</v>
+        <v>2.558017730712891</v>
       </c>
       <c r="C1">
-        <v>7.502767050124693</v>
+        <v>6.153486728668213</v>
       </c>
       <c r="D1">
-        <v>2.29003372868941</v>
+        <v>2.153107881546021</v>
       </c>
       <c r="E1">
-        <v>1.145474143094801</v>
+        <v>1.240064024925232</v>
       </c>
     </row>
   </sheetData>
